--- a/CarManagerHistory.xlsx
+++ b/CarManagerHistory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82105\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dy\github\CarManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD124C8C-B19B-491E-91DE-94F9A2C74892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D650D-97EA-462E-85D0-3CD5B4FD0619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폴더명 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Carmanager(Json, mssql) 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +106,10 @@
 chrome
 git / git hub
 tortoise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">폴더명 정리 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +552,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -584,13 +584,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>15</v>
@@ -601,13 +601,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
